--- a/python-excel-how-plots-work-finish.xlsx
+++ b/python-excel-how-plots-work-finish.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79DDD6-0720-4996-BEB9-804725D38ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D102FC52-6F4D-4106-B143-93F50AC5F2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{5D8B9836-D97A-46FF-8C05-2FA4C80BFB00}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
+          <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
@@ -75,15 +75,16 @@
 <file path=xl/pythonScripts.xml><?xml version="1.0" encoding="utf-8"?>
 <pythonScripts xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/pythonscript">
   <pythonScript>
-    <code>nyc_df = xl(%P2%, headers=True)
-sns.barplot(x='borough', y='population',
-data=nyc_df)</code>
+    <code>nyc_df = xl(%P2%, headers=True) # Convert to df
+sns.barplot(x='borough', y='population', color='blue',
+data=nyc_df)  # Add barplot
+plt.title('Population by borough')</code>
   </pythonScript>
 </pythonScripts>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Brooklyn</t>
   </si>
@@ -107,12 +108,21 @@
   </si>
   <si>
     <t>land_area</t>
+  </si>
+  <si>
+    <t>Place over cells:</t>
+  </si>
+  <si>
+    <t>Create reference:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="20"/>
@@ -142,9 +152,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -166,6 +177,104 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17858</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>632315</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B80BCA2E-CAA9-50F5-A690-75BB6A1BDF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5149452" y="500064"/>
+          <a:ext cx="2983801" cy="2363389"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285237</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>206090</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3C8A42-C6A3-9871-A251-C10C445B5D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!E10"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8768953" y="827484"/>
+          <a:ext cx="3523737" cy="2789747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -206,92 +315,24 @@
 </rvTypesInfo>
 </file>
 
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="2">
-    <v>567</v>
-    <v>448</v>
-  </a>
-</arrayData>
-</file>
-
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <rv s="0">
     <v>0</v>
     <v>9</v>
-  </rv>
-  <rv s="1">
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>Image</v>
-    <v>0</v>
-    <v>0</v>
-    <v>1</v>
-  </rv>
-  <rv s="3">
-    <v>&lt;class 'PIL.PngImagePlugin.PngImageFile'&gt;</v>
-    <v>PngImageFile</v>
-    <v>&lt;PIL.PngImagePlugin.PngImageFile image mode=RGBA size=567x448 at 0x7F9E467E1CA0&gt;</v>
-    <v>2</v>
+    <v>Image generated by Python</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
   <s t="_localImage">
     <k n="_rvRel:LocalImageIdentifier" t="i"/>
     <k n="CalcOrigin" t="i"/>
-  </s>
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_Format" t="spb"/>
-    <k n="image" t="r"/>
-    <k n="size" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
+    <k n="Text" t="s"/>
   </s>
 </rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="1">
-    <spb s="0">
-      <v>1</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <s>
-    <k n="image" t="i"/>
-  </s>
-</spbStructures>
-</file>
-
-<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
-<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <richProperties>
-    <rPr n="IsHeroField" t="b"/>
-  </richProperties>
-  <richStyles>
-    <rSty>
-      <rpv i="0">1</rpv>
-    </rSty>
-  </richStyles>
-</richStyleSheet>
 </file>
 
 <file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,19 +670,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EADC078-C858-46D8-97C7-0CFB8EBD8686}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.65" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="1" max="1" width="10.92578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.58984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.40625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.18359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -651,12 +692,14 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="e" cm="1" vm="1">
-        <f t="array" ref="E1">_xlfn._xlws.PY(0,1,nyc[#All])</f>
-        <v>#VALUE!</v>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +710,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -678,7 +721,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -689,7 +732,7 @@
         <v>22.83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -700,7 +743,7 @@
         <v>42.1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -709,12 +752,19 @@
       </c>
       <c r="C6">
         <v>58.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="28.15" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="E10" s="2" t="e" cm="1" vm="1">
+        <f t="array" ref="E10">_xlfn._xlws.PY(0,0,nyc[#All])</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>